--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H2">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I2">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J2">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5527786666666666</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N2">
-        <v>1.658336</v>
+        <v>3.773582</v>
       </c>
       <c r="O2">
-        <v>0.09524664485857044</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P2">
-        <v>0.09524664485857044</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q2">
-        <v>2.686652833201778</v>
+        <v>13.494238666032</v>
       </c>
       <c r="R2">
-        <v>24.179875498816</v>
+        <v>121.448147994288</v>
       </c>
       <c r="S2">
-        <v>0.00363162245618241</v>
+        <v>0.02264098504447323</v>
       </c>
       <c r="T2">
-        <v>0.00363162245618241</v>
+        <v>0.02264098504447323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H3">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I3">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J3">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.528534</v>
       </c>
       <c r="O3">
-        <v>0.08779145785428895</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P3">
-        <v>0.08779145785428895</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q3">
-        <v>2.476361968711556</v>
+        <v>5.466000899184</v>
       </c>
       <c r="R3">
-        <v>22.287257718404</v>
+        <v>49.19400809265601</v>
       </c>
       <c r="S3">
-        <v>0.003347366516458862</v>
+        <v>0.009170998651670705</v>
       </c>
       <c r="T3">
-        <v>0.003347366516458862</v>
+        <v>0.009170998651670705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H4">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I4">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J4">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02088</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N4">
-        <v>0.06264</v>
+        <v>8.772116</v>
       </c>
       <c r="O4">
-        <v>0.00359773280803218</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P4">
-        <v>0.00359773280803218</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q4">
-        <v>0.10148240976</v>
+        <v>31.368876285216</v>
       </c>
       <c r="R4">
-        <v>0.91334168784</v>
+        <v>282.319886566944</v>
       </c>
       <c r="S4">
-        <v>0.0001371765617192572</v>
+        <v>0.05263151752483034</v>
       </c>
       <c r="T4">
-        <v>0.0001371765617192572</v>
+        <v>0.05263151752483034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.860268666666667</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H5">
-        <v>14.580806</v>
+        <v>42.730565</v>
       </c>
       <c r="I5">
-        <v>0.03812861294563102</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J5">
-        <v>0.03812861294563102</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.651264</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N5">
-        <v>13.953792</v>
+        <v>3.773582</v>
       </c>
       <c r="O5">
-        <v>0.8014370254606795</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P5">
-        <v>0.8014370254606795</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q5">
-        <v>22.60639267959467</v>
+        <v>17.91636565931444</v>
       </c>
       <c r="R5">
-        <v>203.457534116352</v>
+        <v>161.24729093383</v>
       </c>
       <c r="S5">
-        <v>0.03055768214408808</v>
+        <v>0.03006054487274993</v>
       </c>
       <c r="T5">
-        <v>0.03055768214408808</v>
+        <v>0.03006054487274992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.860268666666667</v>
+        <v>14.24352166666667</v>
       </c>
       <c r="H6">
-        <v>14.580806</v>
+        <v>42.730565</v>
       </c>
       <c r="I6">
-        <v>0.03812861294563102</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J6">
-        <v>0.03812861294563102</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.069221</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N6">
-        <v>0.207663</v>
+        <v>1.528534</v>
       </c>
       <c r="O6">
-        <v>0.0119271390184289</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P6">
-        <v>0.0119271390184289</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q6">
-        <v>0.3364326573753334</v>
+        <v>7.257235715745555</v>
       </c>
       <c r="R6">
-        <v>3.027893916378</v>
+        <v>65.31512144171001</v>
       </c>
       <c r="S6">
-        <v>0.0004547652671824092</v>
+        <v>0.01217637907339073</v>
       </c>
       <c r="T6">
-        <v>0.0004547652671824092</v>
+        <v>0.01217637907339073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>42.730565</v>
       </c>
       <c r="I7">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J7">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5527786666666666</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N7">
-        <v>1.658336</v>
+        <v>8.772116</v>
       </c>
       <c r="O7">
-        <v>0.09524664485857044</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P7">
-        <v>0.09524664485857044</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q7">
-        <v>7.873514915537777</v>
+        <v>41.64860810283778</v>
       </c>
       <c r="R7">
-        <v>70.86163423984</v>
+        <v>374.83747292554</v>
       </c>
       <c r="S7">
-        <v>0.01064284645302613</v>
+        <v>0.06987911926836825</v>
       </c>
       <c r="T7">
-        <v>0.01064284645302613</v>
+        <v>0.06987911926836823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.24352166666667</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H8">
-        <v>42.730565</v>
+        <v>76.780828</v>
       </c>
       <c r="I8">
-        <v>0.1117398567564185</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J8">
-        <v>0.1117398567564185</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5095113333333333</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N8">
-        <v>1.528534</v>
+        <v>3.773582</v>
       </c>
       <c r="O8">
-        <v>0.08779145785428895</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P8">
-        <v>0.08779145785428895</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q8">
-        <v>7.257235715745555</v>
+        <v>32.19319449843289</v>
       </c>
       <c r="R8">
-        <v>65.31512144171001</v>
+        <v>289.738750485896</v>
       </c>
       <c r="S8">
-        <v>0.009809804925075402</v>
+        <v>0.05401458008947212</v>
       </c>
       <c r="T8">
-        <v>0.009809804925075402</v>
+        <v>0.05401458008947211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.24352166666667</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H9">
-        <v>42.730565</v>
+        <v>76.780828</v>
       </c>
       <c r="I9">
-        <v>0.1117398567564185</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J9">
-        <v>0.1117398567564185</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02088</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N9">
-        <v>0.06264</v>
+        <v>1.528534</v>
       </c>
       <c r="O9">
-        <v>0.00359773280803218</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P9">
-        <v>0.00359773280803218</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q9">
-        <v>0.2974047324</v>
+        <v>13.04023401623911</v>
       </c>
       <c r="R9">
-        <v>2.6766425916</v>
+        <v>117.362106146152</v>
       </c>
       <c r="S9">
-        <v>0.0004020101486173831</v>
+        <v>0.02187924422007556</v>
       </c>
       <c r="T9">
-        <v>0.0004020101486173831</v>
+        <v>0.02187924422007555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.24352166666667</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H10">
-        <v>42.730565</v>
+        <v>76.780828</v>
       </c>
       <c r="I10">
-        <v>0.1117398567564185</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J10">
-        <v>0.1117398567564185</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.651264</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N10">
-        <v>13.953792</v>
+        <v>8.772116</v>
       </c>
       <c r="O10">
-        <v>0.8014370254606795</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P10">
-        <v>0.8014370254606795</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q10">
-        <v>66.25037956138667</v>
+        <v>74.83670331022755</v>
       </c>
       <c r="R10">
-        <v>596.25341605248</v>
+        <v>673.5303297920481</v>
       </c>
       <c r="S10">
-        <v>0.08955245842426647</v>
+        <v>0.1255629696760637</v>
       </c>
       <c r="T10">
-        <v>0.08955245842426647</v>
+        <v>0.1255629696760637</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.24352166666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H11">
-        <v>42.730565</v>
+        <v>10.214237</v>
       </c>
       <c r="I11">
-        <v>0.1117398567564185</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J11">
-        <v>0.1117398567564185</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.069221</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N11">
-        <v>0.207663</v>
+        <v>3.773582</v>
       </c>
       <c r="O11">
-        <v>0.0119271390184289</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P11">
-        <v>0.0119271390184289</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q11">
-        <v>0.9859508132883333</v>
+        <v>4.282695654103779</v>
       </c>
       <c r="R11">
-        <v>8.873557319595001</v>
+        <v>38.544260886934</v>
       </c>
       <c r="S11">
-        <v>0.001332736805433136</v>
+        <v>0.0071856182963975</v>
       </c>
       <c r="T11">
-        <v>0.001332736805433136</v>
+        <v>0.007185618296397499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.98160133333333</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H12">
-        <v>59.944804</v>
+        <v>10.214237</v>
       </c>
       <c r="I12">
-        <v>0.1567548618243542</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J12">
-        <v>0.1567548618243542</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5527786666666666</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N12">
-        <v>1.658336</v>
+        <v>1.528534</v>
       </c>
       <c r="O12">
-        <v>0.09524664485857044</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P12">
-        <v>0.09524664485857044</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q12">
-        <v>11.04540294290489</v>
+        <v>1.734756504284222</v>
       </c>
       <c r="R12">
-        <v>99.408626486144</v>
+        <v>15.612808538558</v>
       </c>
       <c r="S12">
-        <v>0.01493037465403854</v>
+        <v>0.002910619638599521</v>
       </c>
       <c r="T12">
-        <v>0.01493037465403854</v>
+        <v>0.00291061963859952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.98160133333333</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H13">
-        <v>59.944804</v>
+        <v>10.214237</v>
       </c>
       <c r="I13">
-        <v>0.1567548618243542</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J13">
-        <v>0.1567548618243542</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5095113333333333</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N13">
-        <v>1.528534</v>
+        <v>8.772116</v>
       </c>
       <c r="O13">
-        <v>0.08779145785428895</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P13">
-        <v>0.08779145785428895</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q13">
-        <v>10.18085233748178</v>
+        <v>9.955607979499112</v>
       </c>
       <c r="R13">
-        <v>91.627671037336</v>
+        <v>89.60047181549201</v>
       </c>
       <c r="S13">
-        <v>0.01376173784530768</v>
+        <v>0.01670377832725544</v>
       </c>
       <c r="T13">
-        <v>0.01376173784530768</v>
+        <v>0.01670377832725544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.98160133333333</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H14">
-        <v>59.944804</v>
+        <v>190.795452</v>
       </c>
       <c r="I14">
-        <v>0.1567548618243542</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J14">
-        <v>0.1567548618243542</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02088</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N14">
-        <v>0.06264</v>
+        <v>3.773582</v>
       </c>
       <c r="O14">
-        <v>0.00359773280803218</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P14">
-        <v>0.00359773280803218</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q14">
-        <v>0.41721583584</v>
+        <v>79.99803148322934</v>
       </c>
       <c r="R14">
-        <v>3.75494252256</v>
+        <v>719.9822833490641</v>
       </c>
       <c r="S14">
-        <v>0.00056396210920403</v>
+        <v>0.1342227804936023</v>
       </c>
       <c r="T14">
-        <v>0.00056396210920403</v>
+        <v>0.1342227804936023</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.98160133333333</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H15">
-        <v>59.944804</v>
+        <v>190.795452</v>
       </c>
       <c r="I15">
-        <v>0.1567548618243542</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J15">
-        <v>0.1567548618243542</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.651264</v>
+        <v>0.5095113333333333</v>
       </c>
       <c r="N15">
-        <v>13.953792</v>
+        <v>1.528534</v>
       </c>
       <c r="O15">
-        <v>0.8014370254606795</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P15">
-        <v>0.8014370254606795</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q15">
-        <v>92.93970294408534</v>
+        <v>32.40414838081867</v>
       </c>
       <c r="R15">
-        <v>836.457326496768</v>
+        <v>291.637335427368</v>
       </c>
       <c r="S15">
-        <v>0.1256291501870102</v>
+        <v>0.05436852400690059</v>
       </c>
       <c r="T15">
-        <v>0.1256291501870102</v>
+        <v>0.05436852400690056</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.98160133333333</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H16">
-        <v>59.944804</v>
+        <v>190.795452</v>
       </c>
       <c r="I16">
-        <v>0.1567548618243542</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J16">
-        <v>0.1567548618243542</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.069221</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N16">
-        <v>0.207663</v>
+        <v>8.772116</v>
       </c>
       <c r="O16">
-        <v>0.0119271390184289</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P16">
-        <v>0.0119271390184289</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q16">
-        <v>1.383146425894667</v>
+        <v>185.9644263573813</v>
       </c>
       <c r="R16">
-        <v>12.448317833052</v>
+        <v>1673.679837216432</v>
       </c>
       <c r="S16">
-        <v>0.001869637028793686</v>
+        <v>0.3120159573403776</v>
       </c>
       <c r="T16">
-        <v>0.001869637028793686</v>
+        <v>0.3120159573403775</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.987349666666667</v>
+        <v>9.474383</v>
       </c>
       <c r="H17">
-        <v>17.962049</v>
+        <v>28.423149</v>
       </c>
       <c r="I17">
-        <v>0.04697051823002506</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J17">
-        <v>0.04697051823002506</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5527786666666666</v>
+        <v>1.257860666666667</v>
       </c>
       <c r="N17">
-        <v>1.658336</v>
+        <v>3.773582</v>
       </c>
       <c r="O17">
-        <v>0.09524664485857044</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="P17">
-        <v>0.09524664485857044</v>
+        <v>0.2681199229911799</v>
       </c>
       <c r="Q17">
-        <v>3.309679165607111</v>
+        <v>11.91745371663533</v>
       </c>
       <c r="R17">
-        <v>29.787112490464</v>
+        <v>107.257083449718</v>
       </c>
       <c r="S17">
-        <v>0.004473784268678205</v>
+        <v>0.01999541419448484</v>
       </c>
       <c r="T17">
-        <v>0.004473784268678205</v>
+        <v>0.01999541419448484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.987349666666667</v>
+        <v>9.474383</v>
       </c>
       <c r="H18">
-        <v>17.962049</v>
+        <v>28.423149</v>
       </c>
       <c r="I18">
-        <v>0.04697051823002506</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J18">
-        <v>0.04697051823002506</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,37 +1559,37 @@
         <v>1.528534</v>
       </c>
       <c r="O18">
-        <v>0.08779145785428895</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="P18">
-        <v>0.08779145785428895</v>
+        <v>0.1086051444938523</v>
       </c>
       <c r="Q18">
-        <v>3.050622511796222</v>
+        <v>4.827305514840666</v>
       </c>
       <c r="R18">
-        <v>27.455602606166</v>
+        <v>43.445749633566</v>
       </c>
       <c r="S18">
-        <v>0.004123610271585356</v>
+        <v>0.00809937890321522</v>
       </c>
       <c r="T18">
-        <v>0.004123610271585356</v>
+        <v>0.008099378903215219</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.987349666666667</v>
+        <v>9.474383</v>
       </c>
       <c r="H19">
-        <v>17.962049</v>
+        <v>28.423149</v>
       </c>
       <c r="I19">
-        <v>0.04697051823002506</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J19">
-        <v>0.04697051823002506</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02088</v>
+        <v>2.924038666666667</v>
       </c>
       <c r="N19">
-        <v>0.06264</v>
+        <v>8.772116</v>
       </c>
       <c r="O19">
-        <v>0.00359773280803218</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="P19">
-        <v>0.00359773280803218</v>
+        <v>0.6232749325149678</v>
       </c>
       <c r="Q19">
-        <v>0.12501586104</v>
+        <v>27.70346223480933</v>
       </c>
       <c r="R19">
-        <v>1.12514274936</v>
+        <v>249.331160113284</v>
       </c>
       <c r="S19">
-        <v>0.0001689873744464347</v>
+        <v>0.04648159037807251</v>
       </c>
       <c r="T19">
-        <v>0.0001689873744464347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.987349666666667</v>
-      </c>
-      <c r="H20">
-        <v>17.962049</v>
-      </c>
-      <c r="I20">
-        <v>0.04697051823002506</v>
-      </c>
-      <c r="J20">
-        <v>0.04697051823002506</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>4.651264</v>
-      </c>
-      <c r="N20">
-        <v>13.953792</v>
-      </c>
-      <c r="O20">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="P20">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="Q20">
-        <v>27.84874395997867</v>
-      </c>
-      <c r="R20">
-        <v>250.638695639808</v>
-      </c>
-      <c r="S20">
-        <v>0.0376439124146179</v>
-      </c>
-      <c r="T20">
-        <v>0.0376439124146179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.987349666666667</v>
-      </c>
-      <c r="H21">
-        <v>17.962049</v>
-      </c>
-      <c r="I21">
-        <v>0.04697051823002506</v>
-      </c>
-      <c r="J21">
-        <v>0.04697051823002506</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.069221</v>
-      </c>
-      <c r="N21">
-        <v>0.207663</v>
-      </c>
-      <c r="O21">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="P21">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="Q21">
-        <v>0.4144503312763334</v>
-      </c>
-      <c r="R21">
-        <v>3.730052981487</v>
-      </c>
-      <c r="S21">
-        <v>0.000560223900697158</v>
-      </c>
-      <c r="T21">
-        <v>0.000560223900697158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>58.46038166666667</v>
-      </c>
-      <c r="H22">
-        <v>175.381145</v>
-      </c>
-      <c r="I22">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="J22">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.5527786666666666</v>
-      </c>
-      <c r="N22">
-        <v>1.658336</v>
-      </c>
-      <c r="O22">
-        <v>0.09524664485857044</v>
-      </c>
-      <c r="P22">
-        <v>0.09524664485857044</v>
-      </c>
-      <c r="Q22">
-        <v>32.31565183052444</v>
-      </c>
-      <c r="R22">
-        <v>290.84086647472</v>
-      </c>
-      <c r="S22">
-        <v>0.04368195452110009</v>
-      </c>
-      <c r="T22">
-        <v>0.04368195452110009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>58.46038166666667</v>
-      </c>
-      <c r="H23">
-        <v>175.381145</v>
-      </c>
-      <c r="I23">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="J23">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.5095113333333333</v>
-      </c>
-      <c r="N23">
-        <v>1.528534</v>
-      </c>
-      <c r="O23">
-        <v>0.08779145785428895</v>
-      </c>
-      <c r="P23">
-        <v>0.08779145785428895</v>
-      </c>
-      <c r="Q23">
-        <v>29.78622701015889</v>
-      </c>
-      <c r="R23">
-        <v>268.07604309143</v>
-      </c>
-      <c r="S23">
-        <v>0.04026286149004496</v>
-      </c>
-      <c r="T23">
-        <v>0.04026286149004496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>58.46038166666667</v>
-      </c>
-      <c r="H24">
-        <v>175.381145</v>
-      </c>
-      <c r="I24">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="J24">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02088</v>
-      </c>
-      <c r="N24">
-        <v>0.06264</v>
-      </c>
-      <c r="O24">
-        <v>0.00359773280803218</v>
-      </c>
-      <c r="P24">
-        <v>0.00359773280803218</v>
-      </c>
-      <c r="Q24">
-        <v>1.2206527692</v>
-      </c>
-      <c r="R24">
-        <v>10.9858749228</v>
-      </c>
-      <c r="S24">
-        <v>0.001649989888178095</v>
-      </c>
-      <c r="T24">
-        <v>0.001649989888178095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>58.46038166666667</v>
-      </c>
-      <c r="H25">
-        <v>175.381145</v>
-      </c>
-      <c r="I25">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="J25">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.651264</v>
-      </c>
-      <c r="N25">
-        <v>13.953792</v>
-      </c>
-      <c r="O25">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="P25">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="Q25">
-        <v>271.9146686724267</v>
-      </c>
-      <c r="R25">
-        <v>2447.23201805184</v>
-      </c>
-      <c r="S25">
-        <v>0.3675545290827011</v>
-      </c>
-      <c r="T25">
-        <v>0.3675545290827011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>58.46038166666667</v>
-      </c>
-      <c r="H26">
-        <v>175.381145</v>
-      </c>
-      <c r="I26">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="J26">
-        <v>0.4586193517468507</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.069221</v>
-      </c>
-      <c r="N26">
-        <v>0.207663</v>
-      </c>
-      <c r="O26">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="P26">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="Q26">
-        <v>4.046686079348333</v>
-      </c>
-      <c r="R26">
-        <v>36.420174714135</v>
-      </c>
-      <c r="S26">
-        <v>0.005470016764826433</v>
-      </c>
-      <c r="T26">
-        <v>0.005470016764826433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>23.937254</v>
-      </c>
-      <c r="H27">
-        <v>71.811762</v>
-      </c>
-      <c r="I27">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="J27">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.5527786666666666</v>
-      </c>
-      <c r="N27">
-        <v>1.658336</v>
-      </c>
-      <c r="O27">
-        <v>0.09524664485857044</v>
-      </c>
-      <c r="P27">
-        <v>0.09524664485857044</v>
-      </c>
-      <c r="Q27">
-        <v>13.23200334978133</v>
-      </c>
-      <c r="R27">
-        <v>119.088030148032</v>
-      </c>
-      <c r="S27">
-        <v>0.01788606250554507</v>
-      </c>
-      <c r="T27">
-        <v>0.01788606250554507</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>23.937254</v>
-      </c>
-      <c r="H28">
-        <v>71.811762</v>
-      </c>
-      <c r="I28">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="J28">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.5095113333333333</v>
-      </c>
-      <c r="N28">
-        <v>1.528534</v>
-      </c>
-      <c r="O28">
-        <v>0.08779145785428895</v>
-      </c>
-      <c r="P28">
-        <v>0.08779145785428895</v>
-      </c>
-      <c r="Q28">
-        <v>12.19630220187867</v>
-      </c>
-      <c r="R28">
-        <v>109.766719816908</v>
-      </c>
-      <c r="S28">
-        <v>0.01648607680581669</v>
-      </c>
-      <c r="T28">
-        <v>0.01648607680581669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>23.937254</v>
-      </c>
-      <c r="H29">
-        <v>71.811762</v>
-      </c>
-      <c r="I29">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="J29">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.02088</v>
-      </c>
-      <c r="N29">
-        <v>0.06264</v>
-      </c>
-      <c r="O29">
-        <v>0.00359773280803218</v>
-      </c>
-      <c r="P29">
-        <v>0.00359773280803218</v>
-      </c>
-      <c r="Q29">
-        <v>0.49980986352</v>
-      </c>
-      <c r="R29">
-        <v>4.49828877168</v>
-      </c>
-      <c r="S29">
-        <v>0.0006756067258669794</v>
-      </c>
-      <c r="T29">
-        <v>0.0006756067258669794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>23.937254</v>
-      </c>
-      <c r="H30">
-        <v>71.811762</v>
-      </c>
-      <c r="I30">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="J30">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>4.651264</v>
-      </c>
-      <c r="N30">
-        <v>13.953792</v>
-      </c>
-      <c r="O30">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="P30">
-        <v>0.8014370254606795</v>
-      </c>
-      <c r="Q30">
-        <v>111.338487789056</v>
-      </c>
-      <c r="R30">
-        <v>1002.046390101504</v>
-      </c>
-      <c r="S30">
-        <v>0.1504992932079957</v>
-      </c>
-      <c r="T30">
-        <v>0.1504992932079957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>23.937254</v>
-      </c>
-      <c r="H31">
-        <v>71.811762</v>
-      </c>
-      <c r="I31">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="J31">
-        <v>0.1877867984967205</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.069221</v>
-      </c>
-      <c r="N31">
-        <v>0.207663</v>
-      </c>
-      <c r="O31">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="P31">
-        <v>0.0119271390184289</v>
-      </c>
-      <c r="Q31">
-        <v>1.656960659134</v>
-      </c>
-      <c r="R31">
-        <v>14.912645932206</v>
-      </c>
-      <c r="S31">
-        <v>0.002239759251496082</v>
-      </c>
-      <c r="T31">
-        <v>0.002239759251496082</v>
+        <v>0.0464815903780725</v>
       </c>
     </row>
   </sheetData>
